--- a/Data/concordance.xlsx
+++ b/Data/concordance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\GitHub\sankey5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\GitHub\sankey5\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8A0027-BE6C-40EC-AF41-826D2A44841D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD325EAD-A0A8-49F2-B061-D87C0C14A5A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6620" xr2:uid="{8A351FF2-4AFC-4438-8A4D-83ED2DC9ED18}"/>
   </bookViews>
@@ -1489,10 +1489,10 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3118,7 +3118,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView zoomScale="57" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8473,7 +8473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3307EA51-5183-4089-B2EE-52A4EA63B551}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
